--- a/combined_hornbill_results.xlsx
+++ b/combined_hornbill_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,29 +462,29 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-13.13</v>
+        <v>-20.8</v>
       </c>
       <c r="B2" t="n">
-        <v>-72.97</v>
+        <v>31.65</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>unSuitable for Hornbill</t>
+          <t>Highly Suitable for Hornbill</t>
         </is>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-3.5</v>
+        <v>-13.41</v>
       </c>
       <c r="B3" t="n">
-        <v>-60</v>
+        <v>79.11</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -500,33 +500,33 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-2.89</v>
+        <v>0.82</v>
       </c>
       <c r="B4" t="n">
-        <v>-58.97</v>
+        <v>113.93</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Less Suitability for Hornbill</t>
+          <t>Ideal Suitable for Hornbill</t>
         </is>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-2.25</v>
+        <v>1.41</v>
       </c>
       <c r="B5" t="n">
-        <v>10.75</v>
+        <v>103.95</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Extremely Suitable for Hornbill</t>
+          <t>Ideal Suitable for Hornbill</t>
         </is>
       </c>
       <c r="D5" t="b">
@@ -538,14 +538,14 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9.26</v>
+        <v>6.5</v>
       </c>
       <c r="B6" t="n">
-        <v>77.11</v>
+        <v>80.84999999999999</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ideal Suitable for Hornbill</t>
+          <t>Highly Suitable for Hornbill</t>
         </is>
       </c>
       <c r="D6" t="b">
@@ -557,14 +557,14 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>12.14</v>
+        <v>10.13</v>
       </c>
       <c r="B7" t="n">
-        <v>101.39</v>
+        <v>76.70999999999999</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Moderately Suitable for Hornbill</t>
+          <t>Ideal Suitable for Hornbill</t>
         </is>
       </c>
       <c r="D7" t="b">
@@ -576,14 +576,14 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>14.35</v>
+        <v>13.77</v>
       </c>
       <c r="B8" t="n">
-        <v>106.57</v>
+        <v>79.31</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Moderately Suitable for Hornbill</t>
+          <t>Highly Suitable for Hornbill</t>
         </is>
       </c>
       <c r="D8" t="b">
@@ -595,10 +595,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>15.87</v>
+        <v>25.76</v>
       </c>
       <c r="B9" t="n">
-        <v>100.99</v>
+        <v>13.69</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -614,10 +614,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>19.8</v>
+        <v>25.98</v>
       </c>
       <c r="B10" t="n">
-        <v>80.97</v>
+        <v>-81.04000000000001</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -633,10 +633,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>21.92</v>
+        <v>26.64</v>
       </c>
       <c r="B11" t="n">
-        <v>95.95999999999999</v>
+        <v>93.36</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -648,291 +648,6 @@
       </c>
       <c r="E11" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>22.75</v>
-      </c>
-      <c r="B12" t="n">
-        <v>84.75</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Highly Suitable for Hornbill</t>
-        </is>
-      </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>22.75</v>
-      </c>
-      <c r="B13" t="n">
-        <v>85.25</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Highly Suitable for Hornbill</t>
-        </is>
-      </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>23.42</v>
-      </c>
-      <c r="B14" t="n">
-        <v>25.66</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Highly Suitable for Hornbill</t>
-        </is>
-      </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Highly Suitable for Hornbill</t>
-        </is>
-      </c>
-      <c r="D15" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>23.69</v>
-      </c>
-      <c r="B16" t="n">
-        <v>90.36</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Highly Suitable for Hornbill</t>
-        </is>
-      </c>
-      <c r="D16" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>23.81</v>
-      </c>
-      <c r="B17" t="n">
-        <v>87.69</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>unSuitable for Hornbill</t>
-        </is>
-      </c>
-      <c r="D17" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>26.25</v>
-      </c>
-      <c r="B18" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>unSuitable for Hornbill</t>
-        </is>
-      </c>
-      <c r="D18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>84.5</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>unSuitable for Hornbill</t>
-        </is>
-      </c>
-      <c r="D19" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="B20" t="n">
-        <v>84.13</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Less Suitability for Hornbill</t>
-        </is>
-      </c>
-      <c r="D20" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>30</v>
-      </c>
-      <c r="B21" t="n">
-        <v>80</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>unSuitable for Hornbill</t>
-        </is>
-      </c>
-      <c r="D21" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>40</v>
-      </c>
-      <c r="B22" t="n">
-        <v>10</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>unSuitable for Hornbill</t>
-        </is>
-      </c>
-      <c r="D22" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>46.86</v>
-      </c>
-      <c r="B23" t="n">
-        <v>103.85</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Less Suitability for Hornbill</t>
-        </is>
-      </c>
-      <c r="D23" t="b">
-        <v>0</v>
-      </c>
-      <c r="E23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>60</v>
-      </c>
-      <c r="B24" t="n">
-        <v>90</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>unSuitable for Hornbill</t>
-        </is>
-      </c>
-      <c r="D24" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>64.2</v>
-      </c>
-      <c r="B25" t="n">
-        <v>-149.49</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>unSuitable for Hornbill</t>
-        </is>
-      </c>
-      <c r="D25" t="b">
-        <v>0</v>
-      </c>
-      <c r="E25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>75</v>
-      </c>
-      <c r="B26" t="n">
-        <v>-45</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>unSuitable for Hornbill</t>
-        </is>
-      </c>
-      <c r="D26" t="b">
-        <v>0</v>
-      </c>
-      <c r="E26" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/combined_hornbill_results.xlsx
+++ b/combined_hornbill_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,52 +462,52 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-20.8</v>
+        <v>-13.13</v>
       </c>
       <c r="B2" t="n">
-        <v>31.65</v>
+        <v>-72.97</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Highly Suitable for Hornbill</t>
+          <t>unSuitable for Hornbill</t>
         </is>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-13.41</v>
+        <v>-3.5</v>
       </c>
       <c r="B3" t="n">
-        <v>79.11</v>
+        <v>-60</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>unSuitable for Hornbill</t>
+          <t>Highly Suitable for Hornbill</t>
         </is>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.82</v>
+        <v>-2.25</v>
       </c>
       <c r="B4" t="n">
-        <v>113.93</v>
+        <v>10.75</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ideal Suitable for Hornbill</t>
+          <t>Suitable for Hornbill</t>
         </is>
       </c>
       <c r="D4" t="b">
@@ -519,14 +519,14 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.41</v>
+        <v>9.26</v>
       </c>
       <c r="B5" t="n">
-        <v>103.95</v>
+        <v>77.11</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ideal Suitable for Hornbill</t>
+          <t>Highly Suitable for Hornbill</t>
         </is>
       </c>
       <c r="D5" t="b">
@@ -538,14 +538,14 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.5</v>
+        <v>14.35</v>
       </c>
       <c r="B6" t="n">
-        <v>80.84999999999999</v>
+        <v>106.57</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Highly Suitable for Hornbill</t>
+          <t>Ideal Suitable for Hornbill</t>
         </is>
       </c>
       <c r="D6" t="b">
@@ -557,14 +557,14 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10.13</v>
+        <v>15.87</v>
       </c>
       <c r="B7" t="n">
-        <v>76.70999999999999</v>
+        <v>100.99</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ideal Suitable for Hornbill</t>
+          <t>Highly Suitable for Hornbill</t>
         </is>
       </c>
       <c r="D7" t="b">
@@ -576,14 +576,14 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>13.77</v>
+        <v>19.8</v>
       </c>
       <c r="B8" t="n">
-        <v>79.31</v>
+        <v>80.97</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Highly Suitable for Hornbill</t>
+          <t>Ideal Suitable for Hornbill</t>
         </is>
       </c>
       <c r="D8" t="b">
@@ -595,10 +595,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>25.76</v>
+        <v>21.92</v>
       </c>
       <c r="B9" t="n">
-        <v>13.69</v>
+        <v>95.95999999999999</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -614,14 +614,14 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>25.98</v>
+        <v>22.75</v>
       </c>
       <c r="B10" t="n">
-        <v>-81.04000000000001</v>
+        <v>84.75</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Highly Suitable for Hornbill</t>
+          <t>Ideal Suitable for Hornbill</t>
         </is>
       </c>
       <c r="D10" t="b">
@@ -633,10 +633,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>26.64</v>
+        <v>22.75</v>
       </c>
       <c r="B11" t="n">
-        <v>93.36</v>
+        <v>85.25</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -644,10 +644,162 @@
         </is>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>23.69</v>
+      </c>
+      <c r="B12" t="n">
+        <v>90.36</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ideal Suitable for Hornbill</t>
+        </is>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>23.81</v>
+      </c>
+      <c r="B13" t="n">
+        <v>87.69</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Suitable for Hornbill</t>
+        </is>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>unSuitable for Hornbill</t>
+        </is>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Less Suitability for Hornbill</t>
+        </is>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>30</v>
+      </c>
+      <c r="B16" t="n">
+        <v>80</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>unSuitable for Hornbill</t>
+        </is>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>60</v>
+      </c>
+      <c r="B17" t="n">
+        <v>90</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>unSuitable for Hornbill</t>
+        </is>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>64.2</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-149.49</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>unSuitable for Hornbill</t>
+        </is>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>75</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-45</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>unSuitable for Hornbill</t>
+        </is>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/combined_hornbill_results.xlsx
+++ b/combined_hornbill_results.xlsx
@@ -507,14 +507,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Suitable for Hornbill</t>
+          <t>Less Suitability for Hornbill</t>
         </is>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,7 +564,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Highly Suitable for Hornbill</t>
+          <t>Suitable for Hornbill</t>
         </is>
       </c>
       <c r="D7" t="b">
@@ -583,7 +583,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ideal Suitable for Hornbill</t>
+          <t>Highly Suitable for Hornbill</t>
         </is>
       </c>
       <c r="D8" t="b">
@@ -621,7 +621,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ideal Suitable for Hornbill</t>
+          <t>Highly Suitable for Hornbill</t>
         </is>
       </c>
       <c r="D10" t="b">
@@ -678,14 +678,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Suitable for Hornbill</t>
+          <t>Less Suitability for Hornbill</t>
         </is>
       </c>
       <c r="D13" t="b">
         <v>1</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
